--- a/titleDataBase.xlsx
+++ b/titleDataBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t xml:space="preserve">
 ____________&lt;TK&gt;____________ (@tlgkyck) • Instagram photos and videos
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>https://www.clipconverter.cc/tr/</t>
+  </si>
+  <si>
+    <t>Serdar Yılmaz</t>
+  </si>
+  <si>
+    <t>http://www.srdrylmz.com/</t>
+  </si>
+  <si>
+    <t>http://www.srdrylmz.com</t>
   </si>
 </sst>
 </file>
@@ -461,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
@@ -893,6 +902,39 @@
         <v>25</v>
       </c>
     </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="3" t="n">
+        <v>43157.52041076619</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="3" t="n">
+        <v>43157.52701976366</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="3" t="n">
+        <v>43157.52924111473</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/titleDataBase.xlsx
+++ b/titleDataBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t xml:space="preserve">
 ____________&lt;TK&gt;____________ (@tlgkyck) • Instagram photos and videos
@@ -129,6 +129,27 @@
   </si>
   <si>
     <t>http://www.srdrylmz.com</t>
+  </si>
+  <si>
+    <t>Hürriyet - Haberler, Son Dakika Haberleri ve Güncel Haber</t>
+  </si>
+  <si>
+    <t>http://www.hurriyet.com.tr/</t>
+  </si>
+  <si>
+    <t>1 Euro kaç lira eder? - 1 Euro kaç TL eder ?</t>
+  </si>
+  <si>
+    <t>http://www.haberturk.com/ekonomi/euro-ne-kadar</t>
+  </si>
+  <si>
+    <t>1 Euro kaç Türk Lirası (TL)  eder? - 1 EUR ve TL Hesaplama, Döviz Kurları, Para Çevirici</t>
+  </si>
+  <si>
+    <t>http://euro.tlkur.com</t>
+  </si>
+  <si>
+    <t>http://euro.tlkur.com/</t>
   </si>
 </sst>
 </file>
@@ -470,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
@@ -935,6 +956,50 @@
         <v>28</v>
       </c>
     </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="3" t="n">
+        <v>43157.6949573472</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="3" t="n">
+        <v>43158.07860809564</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="3" t="n">
+        <v>43158.08078155392</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="3" t="n">
+        <v>43158.08567100641</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/titleDataBase.xlsx
+++ b/titleDataBase.xlsx
@@ -491,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
@@ -1000,6 +1000,50 @@
         <v>35</v>
       </c>
     </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="3" t="n">
+        <v>43178.58502079663</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="3" t="n">
+        <v>43178.58520305724</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="3" t="n">
+        <v>43179.7205217905</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="3" t="n">
+        <v>43179.72086958394</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/titleDataBase.xlsx
+++ b/titleDataBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t xml:space="preserve">
 ____________&lt;TK&gt;____________ (@tlgkyck) • Instagram photos and videos
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>http://euro.tlkur.com/</t>
+  </si>
+  <si>
+    <t>https://ubersem.com</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
@@ -1044,6 +1047,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="3" t="n">
+        <v>43181.09614676896</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="3" t="n">
+        <v>43181.11413893324</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
